--- a/biology/Botanique/Premna/Premna.xlsx
+++ b/biology/Botanique/Premna/Premna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Premna est un genre de plantes à fleurs de la famille des Lamiaceae. Elle est répandue dans les régions tropicales et subtropricales en Afrique, dans le Sud de l'Asie, le Nord de l'Australie et plusieurs îles des océans Pacifique et Indien.
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Premna acuminata
 Premna acutata
